--- a/medicine/Psychotrope/The_Gentlemen_(série_télévisée)/The_Gentlemen_(série_télévisée).xlsx
+++ b/medicine/Psychotrope/The_Gentlemen_(série_télévisée)/The_Gentlemen_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Gentlemen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Gentlemen est une série télévisée américano-britannique créée par Guy Ritchie, diffusée le 7 mars 2024 sur Netflix. Il s'agit d'un spin-off de son film homonyme sorti en 2019.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Gentlemen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après le décès de son père Archibald Horniman, Duc de Halstead, son fils Edward « Eddie » hérite de son titre, de son manoir et de son vaste domaine en Grande-Bretagne. Il découvre rapidement que la propriété faisait partie de l'immense empire du trafic de cannabis géré par Bobby et Suzan Glass [1]. Eddie va par ailleurs être confronté à plusieurs gangsters qui veulent toucher leur part du trafic. Étranger à l'univers du crime organisé, le jeune homme tente de protéger sa famille et de piéger les gangsters. Mais il va peu à peu prendre goût à ce monde.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le décès de son père Archibald Horniman, Duc de Halstead, son fils Edward « Eddie » hérite de son titre, de son manoir et de son vaste domaine en Grande-Bretagne. Il découvre rapidement que la propriété faisait partie de l'immense empire du trafic de cannabis géré par Bobby et Suzan Glass . Eddie va par ailleurs être confronté à plusieurs gangsters qui veulent toucher leur part du trafic. Étranger à l'univers du crime organisé, le jeune homme tente de protéger sa famille et de piéger les gangsters. Mais il va peu à peu prendre goût à ce monde.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>The_Gentlemen_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Theo James (VF : Damien Ferrette) : Eddie Horniman
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Theo James (VF : Damien Ferrette) : Eddie Horniman
 Kaya Scodelario (VF : Kelly Marot) : Susie Glass
 Daniel Ings (VF : Thomas Roditi) : Freddy Horniman
 Joely Richardson (VF : Isabelle Gardien) : Lady Sabrina
@@ -557,49 +576,119 @@
 Ray Winstone (VF : Philippe Catoire) : Bobby Glass
 Freddie Fox (VF : Aurélien Raynal) : Max Bassington
 Kristofer Hivju (VF : Stéphane Roux) : Florian De Groot
-Laurence O'Fuarain (en) (VF : Boris Rehlinger) : J. P. Ward
-Récurrents
-Stéphane Fichet : Mr Lawrence
+Laurence O'Fuarain (en) (VF : Boris Rehlinger) : J. P. Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stéphane Fichet : Mr Lawrence
 Jasmine Blackborow (en) (VF : Laetitia Coryn) : Charly
 Chanel Cresswell (en) (VF : Anne Mathot) : Tamasina "Tammy" Horniman
 Pearce Quigley (VF : Bernard Alane) : John "The Gospel" Dixon
 Gaia Weiss (VF : Elle-même) : la princesse Rosanne
 Max Beesley (VF : Laurent Maurel) : Henry Collins
 Harry Goodwins (VF : Juan Llorca) : Jack Glass
-Ruby Sear (VF : Rebecca Benhamour) : Gabrielle
-Invités
-Peter Serafinowicz (VF : Pierre Tessier) : Tommy Dixon
+Ruby Sear (VF : Rebecca Benhamour) : Gabrielle</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Peter Serafinowicz (VF : Pierre Tessier) : Tommy Dixon
 Dar Salim (VF : Christophe Peyroux) : Felix
 Nigel Havers (VF : Philippe Crubezy) : Tibsy Whitecroft
- Source et légende : version française (VF) sur RS Doublage[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Raffinement et agressivité
 Tackle Tommy woo woo
@@ -612,40 +701,115 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Genèse et développement
-En octobre 2020, Guy Ritchie commence à développer une série qu'il va écrire et réaliser, inspiré par son film The Gentlemen, avec Miramax Television. Le cinéaste produit également le film avec la même équipe que pour le long métrage[3]. Matthew Read collabore avec Guy Richie à l'écriture de l’épisode pilote et participe également à la production de la série via sa société Moonage Pictures avec Will Gould. Après visionnage du pilote, Netflix commande la série[4],[5].
-En novembre 2022, Theo James est annoncé dans le rôle principal[6],[5]. Kaya Scodelario, Daniel Ings, Joely Richardson, Giancarlo Esposito, Peter Serafinowicz, Alexis Rodney et Vinnie Jones sont ensuite annoncés[7],[8]. En juin 2023, Max Beesley est annoncé[9]. L'actrice Chanel Cresswell rejoint la série dans un rôle récurrent en décembre 2022[10]. La présence de Ray Winstone est confirmée lors de la sortie de la première bande-annonce en janvier 2024[11].
-Tournage
-Le tournage a lieu à Londres et au château de Badminton House de novembre 2022 à juin 2023[12],[8],[13].
-Sortie
-La série est sortie le 7 mars 2024 sur Netflix[14].
-Fiche technique</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2020, Guy Ritchie commence à développer une série qu'il va écrire et réaliser, inspiré par son film The Gentlemen, avec Miramax Television. Le cinéaste produit également le film avec la même équipe que pour le long métrage. Matthew Read collabore avec Guy Richie à l'écriture de l’épisode pilote et participe également à la production de la série via sa société Moonage Pictures avec Will Gould. Après visionnage du pilote, Netflix commande la série,.
+En novembre 2022, Theo James est annoncé dans le rôle principal,. Kaya Scodelario, Daniel Ings, Joely Richardson, Giancarlo Esposito, Peter Serafinowicz, Alexis Rodney et Vinnie Jones sont ensuite annoncés,. En juin 2023, Max Beesley est annoncé. L'actrice Chanel Cresswell rejoint la série dans un rôle récurrent en décembre 2022. La présence de Ray Winstone est confirmée lors de la sortie de la première bande-annonce en janvier 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à Londres et au château de Badminton House de novembre 2022 à juin 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_Gentlemen_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Gentlemen_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est sortie le 7 mars 2024 sur Netflix.
+</t>
         </is>
       </c>
     </row>
